--- a/demo/src/assets/xls/stats.xlsx
+++ b/demo/src/assets/xls/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Work/OpenSource/JavaScript/VuexSuperstore/vuex-pathify/demo/src/assets/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA012A88-C14D-DA4C-8268-C12F51B4A62D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E45862-11D4-9F47-BBF8-B4916018FA43}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28700" windowHeight="17540" xr2:uid="{29E4CAF5-64DD-8A4C-8E8B-E01631B1F36D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>Pathify</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Characters</t>
   </si>
   <si>
-    <t>Syntaxes</t>
-  </si>
-  <si>
     <t>Template</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>get, sync</t>
   </si>
   <si>
-    <t>function, compound function, getter syntax, state syntax, commit, payload</t>
-  </si>
-  <si>
     <t>computed</t>
   </si>
   <si>
@@ -152,6 +146,27 @@
   </si>
   <si>
     <t>Vuex Helpers (light)</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>state, SET_STATE</t>
+  </si>
+  <si>
+    <t>state, setState, SET_STATE</t>
+  </si>
+  <si>
+    <t>Pathify (all)</t>
+  </si>
+  <si>
+    <t>function, compound function, state syntax, getter syntax, commit, payload</t>
+  </si>
+  <si>
+    <t>Naming</t>
+  </si>
+  <si>
+    <t>Bindings</t>
   </si>
 </sst>
 </file>
@@ -550,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6034EC5-16CA-9940-A083-88C64DAEFB64}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,29 +589,30 @@
     <col min="15" max="15" width="11.5" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="7"/>
     <col min="17" max="17" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="55.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="58" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="1"/>
-    <col min="23" max="23" width="10.83203125" style="7"/>
-    <col min="24" max="24" width="10.83203125" style="1"/>
-    <col min="25" max="16384" width="10.83203125" style="7"/>
+    <col min="18" max="18" width="17.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="55.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="58" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="1"/>
+    <col min="24" max="24" width="10.83203125" style="7"/>
+    <col min="25" max="25" width="10.83203125" style="1"/>
+    <col min="26" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -606,16 +622,13 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -641,41 +654,44 @@
         <v>Approach</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="O4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="12" t="str">
         <f>J4</f>
         <v>Approach</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="8" t="s">
-        <v>22</v>
+      <c r="W4" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -727,24 +743,27 @@
         <v>Pathify</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="7">
+        <v>23</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3">
         <v>342</v>
@@ -794,24 +813,27 @@
         <v>Vuex Helpers (light)</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V6" s="7">
+        <v>26</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3">
         <v>85</v>
@@ -861,28 +883,31 @@
         <v>Vue Computed (light)</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" s="7">
+        <v>43</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>11</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>2</v>
@@ -896,13 +921,13 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="Q11" s="12"/>
-      <c r="V11" s="1"/>
-      <c r="X11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -927,43 +952,46 @@
         <v>Approach</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="O12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Approach</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="S12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>162</v>
@@ -1007,29 +1035,31 @@
         <f t="shared" ref="O13:O18" si="5">N13/MIN($N$13:$N$18)</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Pathify (implicit)</v>
+      <c r="Q13" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V13" s="1">
-        <v>5</v>
+      <c r="V13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" s="1">
+        <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
         <v>162</v>
@@ -1074,28 +1104,31 @@
         <v>1.4977973568281939</v>
       </c>
       <c r="Q14" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Pathify (explicit)</v>
+        <f>J15</f>
+        <v>Vuex helpers (light)</v>
       </c>
       <c r="R14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S14" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="T14" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V14" s="1">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W14" s="1">
+        <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>346</v>
@@ -1140,28 +1173,31 @@
         <v>5.5682819383259909</v>
       </c>
       <c r="Q15" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Vuex helpers (light)</v>
+        <f>J16</f>
+        <v>Vuex helpers (full)</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V15" s="1">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W15" s="1">
+        <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>346</v>
@@ -1206,28 +1242,31 @@
         <v>10.052863436123349</v>
       </c>
       <c r="Q16" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Vuex helpers (full)</v>
+        <f>J17</f>
+        <v>Vue computed (light)</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" s="1">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" s="1">
+        <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
         <v>162</v>
@@ -1272,28 +1311,31 @@
         <v>8.8986784140969153</v>
       </c>
       <c r="Q17" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Vue computed (light)</v>
+        <f>J18</f>
+        <v>Vue computed (full)</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V17" s="1">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="1">
+        <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
         <v>162</v>
@@ -1336,25 +1378,6 @@
       <c r="O18" s="8">
         <f t="shared" si="5"/>
         <v>13.691629955947137</v>
-      </c>
-      <c r="Q18" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Vue computed (full)</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V18" s="1">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
